--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaLePhi.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaLePhi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4961B95-47C2-4F3F-8E9C-15AB7574F86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF96B51-9CF0-40F3-98E7-ED1173401330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="11175" yWindow="1380" windowWidth="12195" windowHeight="11145" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Mã nhóm</t>
-  </si>
-  <si>
-    <t>Nhà có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà không có khu phụ</t>
-  </si>
-  <si>
-    <t>Nhà khác</t>
-  </si>
-  <si>
-    <t>Tên nhóm</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 111</t>
-  </si>
-  <si>
-    <t>Nhà 1 tầng, tường 200</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+  <si>
+    <t>GIÁ LỆ PHÍ TRƯỚC BẠ</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Tỷ lệ %</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>CHƯƠNG I: XE DO VIỆT NAM LẮP RÁP</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH LIÊN DOANH Ô TÔ HÒA BÌNH (VMC)</t>
+  </si>
+  <si>
+    <t>Hiệu Mazda</t>
+  </si>
+  <si>
+    <t>MAZDA 323, 1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sản xuất từ 1993 về trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sản xuất 1994-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sản xuất 1996 về sau</t>
+  </si>
+  <si>
+    <t>MAZDA 626, 2.0</t>
+  </si>
+  <si>
+    <t>MAZDA B2200</t>
+  </si>
+  <si>
+    <t>MAZDA E2000, 12 chỗ</t>
+  </si>
+  <si>
+    <t>MAZDA 3, dung tích xi lanh 1598, sản xuất năm 2004; 5 chỗ</t>
+  </si>
+  <si>
+    <t>Hiệu KIA</t>
+  </si>
+  <si>
+    <t>KIA PRIDE 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIA vận tải 1,5 tấn </t>
+  </si>
+  <si>
+    <t>Hiệu BMW</t>
+  </si>
+  <si>
+    <t>BMW 320i</t>
+  </si>
+  <si>
+    <t>BMW 525i</t>
+  </si>
+  <si>
+    <t>Hiệu NISSAN</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA L10M</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA L10A</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA 10A (sản xuất năm 2011)</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA 10A (sản xuất năm 2012)</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA 10M (sản xuất năm 2011)</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA 10M (sản xuất năm 2012)</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA 1.8L 4AT (sản xuất trong nước)</t>
+  </si>
+  <si>
+    <t>NISSAN GRAND LIVINA 1.8L 6MT (sản xuất trong nước)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NISSAN NAVARA LE 2.5 (pick up), sản xuất năm 2011 </t>
+  </si>
+  <si>
+    <t>NISSAN NAVARA LE (sản xuất năm 2012)</t>
+  </si>
+  <si>
+    <t>NISSAN NAVARA 2.5L 6MT</t>
+  </si>
+  <si>
+    <t>NISSAN NAVARA XE, 5 chỗ, Pickup cabin kép, số tự động</t>
+  </si>
+  <si>
+    <t>CÔNG TY MEKONG AUTO</t>
+  </si>
+  <si>
+    <t>Mekong JEEP</t>
+  </si>
+  <si>
+    <t>Mekong STAR 4WD (loại cũ máy Hàn Quốc, thân nhỏ, lốp nhỏ)</t>
+  </si>
+  <si>
+    <t>Mekong STAR 4WD (loại mới máy Đức, thân to, lốp to)</t>
+  </si>
+  <si>
+    <t>Mekong IVECO 16-26 chỗ ngồi</t>
+  </si>
+  <si>
+    <t>Loại có máy lạnh</t>
+  </si>
+  <si>
+    <t>Loại không có máy lạnh</t>
+  </si>
+  <si>
+    <t>Mekong IVECO 27-30 chỗ ngồi</t>
+  </si>
+  <si>
+    <t>Mekong IVECO trên 30 chỗ ngồi</t>
+  </si>
+  <si>
+    <t>Mekong AMBULANCE 4WD</t>
+  </si>
+  <si>
+    <t>Mekong IVECO vận tải, trọng tải dưới 2,5 tấn</t>
+  </si>
+  <si>
+    <t>Loại chỉ có Chassis</t>
+  </si>
+  <si>
+    <t>Loại có thùng thông dụng</t>
+  </si>
+  <si>
+    <t>Loại có thùng chở hàng kín</t>
+  </si>
+  <si>
+    <t>Mekong IVECO TURBODAILY TRUCK 4910</t>
+  </si>
+  <si>
+    <t>FIAT TEMPRA 1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,17 +194,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F4254"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -103,22 +237,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,143 +679,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15">
+        <v>280000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15">
+        <v>340000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15">
+        <v>380000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15">
+        <v>230000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15">
+        <v>270000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15">
+        <v>280000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15">
+        <v>435370000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15">
+        <v>140000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="15">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="15">
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15">
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="15">
+        <v>140000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15">
+        <v>580000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="15">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="15">
+        <v>680000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="15">
+        <v>700000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="15">
+        <v>653500000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="15">
+        <v>705000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="15">
+        <v>635000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="15">
+        <v>655000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="15">
+        <v>613500000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="15">
+        <v>633500000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="15">
+        <v>685000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="15">
+        <v>635500000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="15">
+        <v>641550000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="15">
+        <v>656500000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="15">
+        <v>686500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15">
+        <v>769950000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>231130563414</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="15">
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="15">
+        <v>230000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>231130224114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="15">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="15">
+        <v>230000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="15">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="15">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="15">
+        <v>270000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="15">
+        <v>290000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="15">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="15">
+        <v>430000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="15">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="15">
+        <v>350000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="15">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="15">
+        <v>380000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="15">
+        <v>420000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="15">
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="15">
+        <v>330000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="15">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="15">
+        <v>390000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="15">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="15">
+        <v>650000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="15">
+        <v>660000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="15">
+        <v>330000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="15">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="15">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="15">
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="15">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="15">
+        <v>230000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="15">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="15">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="15">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="15">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="15">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="15">
+        <v>230000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="15">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="15">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="15">
+        <v>280000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="15">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="15">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="15">
+        <v>230000000</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaLePhi.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaLePhi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF96B51-9CF0-40F3-98E7-ED1173401330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8959A4E8-E796-4074-AF3F-DE831D33D4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="1380" windowWidth="12195" windowHeight="11145" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,14 +188,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -311,11 +311,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,26 +329,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -359,12 +344,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,1080 +684,1081 @@
   <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="41.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15">
+      <c r="C7" s="18"/>
+      <c r="D7" s="10">
         <v>220000000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="10">
         <v>280000000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="10">
         <v>300000000</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15">
+      <c r="C11" s="18"/>
+      <c r="D11" s="10">
         <v>340000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="10">
         <v>380000000</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="10">
         <v>400000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="10">
         <v>200000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="10">
         <v>220000000</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15">
+      <c r="C18" s="18"/>
+      <c r="D18" s="10">
         <v>230000000</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="10">
         <v>270000000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="10">
         <v>280000000</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15">
+      <c r="C21" s="19"/>
+      <c r="D21" s="10">
         <v>435370000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>1.2</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15">
+      <c r="C24" s="18"/>
+      <c r="D24" s="10">
         <v>120000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="10">
         <v>140000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="10">
         <v>150000000</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15">
+      <c r="C28" s="18"/>
+      <c r="D28" s="10">
         <v>110000000</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="10">
         <v>130000000</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="10">
         <v>140000000</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>1.3</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="10">
         <v>580000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="10">
         <v>600000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="10">
         <v>680000000</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="10">
         <v>700000000</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>1.4</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="15">
+      <c r="C39" s="18"/>
+      <c r="D39" s="10">
         <v>653500000</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="15">
+      <c r="C40" s="18"/>
+      <c r="D40" s="10">
         <v>705000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="15">
+      <c r="C41" s="18"/>
+      <c r="D41" s="10">
         <v>635000000</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="15">
+      <c r="C42" s="18"/>
+      <c r="D42" s="10">
         <v>655000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="15">
+      <c r="C43" s="18"/>
+      <c r="D43" s="10">
         <v>613500000</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="15">
+      <c r="C44" s="18"/>
+      <c r="D44" s="10">
         <v>633500000</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="15">
+      <c r="C45" s="18"/>
+      <c r="D45" s="10">
         <v>685000000</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="15">
+      <c r="C46" s="18"/>
+      <c r="D46" s="10">
         <v>635500000</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="15">
+      <c r="C47" s="18"/>
+      <c r="D47" s="10">
         <v>641550000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12" t="s">
+    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15">
+      <c r="C48" s="18"/>
+      <c r="D48" s="10">
         <v>656500000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15">
+      <c r="C49" s="18"/>
+      <c r="D49" s="10">
         <v>686500000</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15">
+      <c r="C50" s="18"/>
+      <c r="D50" s="10">
         <v>769950000</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>2</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="15">
+      <c r="C53" s="18"/>
+      <c r="D53" s="10">
         <v>180000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="10">
         <v>210000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="10">
         <v>230000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="5"/>
+      <c r="B57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="15">
+      <c r="C57" s="18"/>
+      <c r="D57" s="10">
         <v>200000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="10">
         <v>230000000</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="10">
         <v>240000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="5"/>
+      <c r="B60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="15">
+      <c r="C61" s="18"/>
+      <c r="D61" s="10">
         <v>250000000</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="10">
         <v>270000000</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="10">
         <v>290000000</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15">
+      <c r="C66" s="18"/>
+      <c r="D66" s="10">
         <v>300000000</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="10">
         <v>400000000</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="10">
         <v>430000000</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="5"/>
+      <c r="B70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15">
+      <c r="C70" s="18"/>
+      <c r="D70" s="10">
         <v>300000000</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="10">
         <v>350000000</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="10">
         <v>400000000</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="15">
+      <c r="C75" s="18"/>
+      <c r="D75" s="10">
         <v>380000000</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="15">
+      <c r="A76" s="5"/>
+      <c r="B76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="10">
         <v>420000000</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="15">
+      <c r="A77" s="5"/>
+      <c r="B77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="10">
         <v>450000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="15">
+      <c r="C79" s="18"/>
+      <c r="D79" s="10">
         <v>330000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="10">
         <v>360000000</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="10">
         <v>390000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="12" t="s">
+      <c r="A82" s="5"/>
+      <c r="B82" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="12" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="15">
+      <c r="C84" s="18"/>
+      <c r="D84" s="10">
         <v>600000000</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="15">
+      <c r="A85" s="5"/>
+      <c r="B85" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="10">
         <v>650000000</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="15">
+      <c r="A86" s="5"/>
+      <c r="B86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="10">
         <v>660000000</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="12" t="s">
+      <c r="A87" s="5"/>
+      <c r="B87" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="5"/>
+      <c r="B88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="15">
+      <c r="C88" s="18"/>
+      <c r="D88" s="10">
         <v>330000000</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
-      <c r="B89" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="10">
         <v>400000000</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
-      <c r="B90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="10">
         <v>500000000</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="12" t="s">
+      <c r="A91" s="5"/>
+      <c r="B91" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="12" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="15">
+      <c r="C92" s="18"/>
+      <c r="D92" s="10">
         <v>180000000</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="15">
+      <c r="A93" s="5"/>
+      <c r="B93" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="10">
         <v>210000000</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="10">
         <v>230000000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="12" t="s">
+    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
-      <c r="B96" s="12" t="s">
+      <c r="A96" s="5"/>
+      <c r="B96" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6"/>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="15">
+      <c r="C97" s="18"/>
+      <c r="D97" s="10">
         <v>200000000</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6"/>
-      <c r="B98" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="10">
         <v>220000000</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6"/>
-      <c r="B99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="10">
         <v>240000000</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6"/>
-      <c r="B100" s="12" t="s">
+      <c r="A100" s="5"/>
+      <c r="B100" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
-      <c r="B101" s="12" t="s">
+      <c r="A101" s="5"/>
+      <c r="B101" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="15">
+      <c r="C101" s="18"/>
+      <c r="D101" s="10">
         <v>210000000</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6"/>
-      <c r="B102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="10">
         <v>220000000</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
-      <c r="B103" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="10">
         <v>230000000</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
-      <c r="B104" s="12" t="s">
+      <c r="A104" s="5"/>
+      <c r="B104" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
-      <c r="B105" s="12" t="s">
+      <c r="A105" s="5"/>
+      <c r="B105" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="15">
+      <c r="C105" s="18"/>
+      <c r="D105" s="10">
         <v>220000000</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
-      <c r="B106" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="15">
+      <c r="A106" s="5"/>
+      <c r="B106" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="10">
         <v>240000000</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
-      <c r="B107" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="18"/>
+      <c r="D107" s="10">
         <v>280000000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="12" t="s">
+    <row r="108" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="10">
         <v>240000000</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="10">
         <v>250000000</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="12" t="s">
+      <c r="A111" s="5"/>
+      <c r="B111" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
-      <c r="B112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="10">
         <v>230000000</v>
       </c>
     </row>
@@ -1764,6 +1767,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="C3:C1048576" xr:uid="{2BE94D08-7A72-4943-98F9-48F3B3145F82}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D4:D1048576" xr:uid="{4FA472E1-8071-485F-963D-02E4758E8F0A}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
